--- a/OKPlus/Keyboard and Web Accessibility/Documentation/Accessibility Progress.xlsx
+++ b/OKPlus/Keyboard and Web Accessibility/Documentation/Accessibility Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyroneg/Documents/PragmaDesign/OKPlus/OKPlus/Keyboard and Web Accessibility/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FCA5E3-92C5-264D-8D1F-C8ABD03DC85C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968209A5-36F1-C14B-9844-DAA9935A824E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{766D87E8-F2A8-944F-9BF4-1A1D3D71D77F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" activeTab="4" xr2:uid="{766D87E8-F2A8-944F-9BF4-1A1D3D71D77F}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="11" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <t>View button – focus moves to the first item but cant get back to close the button quickly again with out having to follow the tab sequence. Esc to close the window</t>
   </si>
   <si>
-    <t>New Button – When opening the new crud, the voice assist stays on the dashboard toolbar button. Focus should be on the first input in the crud.</t>
-  </si>
-  <si>
     <t>Exiting the panel should then bring you back to the toolbar button that opened the panel.</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tested Internally </t>
+  </si>
+  <si>
+    <t>Create Button – When opening the Create crud, the voice assist stays on the dashboard toolbar button. Focus should be on the first input in the crud.</t>
   </si>
 </sst>
 </file>
@@ -863,10 +863,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>38</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>2</v>
@@ -874,87 +874,87 @@
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
         <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -995,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>2</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
@@ -1036,7 +1036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E487DE2-62EE-5A44-BEAA-38D60EF6233B}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>2</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="14" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>1</v>
@@ -1158,10 +1158,10 @@
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1192,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>2</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="7" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>1</v>
@@ -1238,10 +1238,10 @@
     </row>
     <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1254,7 +1254,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>2</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="4" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
@@ -1306,22 +1306,22 @@
     </row>
     <row r="7" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1333,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607E88C8-B6CF-444F-AEB6-8C8DC631057B}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1351,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>2</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="3" spans="1:4" s="17" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>4</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -1381,12 +1381,12 @@
     </row>
     <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>4</v>
@@ -1394,12 +1394,12 @@
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>4</v>
@@ -1438,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>2</v>
@@ -1452,25 +1452,25 @@
     </row>
     <row r="3" spans="1:4" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="16"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="16"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="16"/>
     </row>
     <row r="7" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>1</v>
@@ -1478,10 +1478,10 @@
     </row>
     <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1514,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>2</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="3" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="16"/>
     </row>
@@ -1563,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>2</v>
@@ -1577,18 +1577,18 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="16"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1618,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>2</v>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
